--- a/DATA/sheet.xlsx
+++ b/DATA/sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Videos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Panneaux\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDE8D7D-2610-4905-B7E8-281CDFC5A90D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9A03D7-8EC0-478B-8345-C226A41E75F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2496,8 +2496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
